--- a/target/test-classes/testdata/data.xlsx
+++ b/target/test-classes/testdata/data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3EC76718-6728-48DA-97BA-1441F5EFD95E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D27414F7-562D-411C-8D06-07CD33DD955D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" activeTab="2" xr2:uid="{DDA8A456-6C4A-47F0-83B5-C0D0D0708002}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" activeTab="1" xr2:uid="{DDA8A456-6C4A-47F0-83B5-C0D0D0708002}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G6"/>
+  <oleSize ref="A5:I10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CCD386-9A4E-488B-B6DF-29E9BD8AA305}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2030A-64F2-4A34-8927-41D149E5C3EE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
